--- a/Excel-Automatizaciones/TABLERO.xlsx
+++ b/Excel-Automatizaciones/TABLERO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marisela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marisela\Desktop\carpeta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404B98C-21CC-44AE-B6D2-22525EA5FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D79922-2FB4-4CBB-A389-581682E2BCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{E1695571-15D3-4BE8-88CA-91E0390AD0CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{E1695571-15D3-4BE8-88CA-91E0390AD0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Clase #4" sheetId="1" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -610,175 +610,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -821,12 +653,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="dd\-mmm\-yy"/>
@@ -3467,7 +3293,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3475,270 +3301,129 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>960905</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>589915</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>119796</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1DAE4A0-A8D3-4E42-820F-2BFED74F7902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C33134-924B-4AAC-825B-8B726F46C4BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2637305" cy="685800"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="2638425" cy="685800"/>
+          <a:ext cx="847090" cy="691296"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F7C13F-D5C9-3D5B-DAC3-640AC71345C9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="342900" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="es-PA" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Grupo 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDD29A8-5583-5690-E635-EB50F923D0DC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="190500" y="133350"/>
-            <a:ext cx="2447925" cy="552450"/>
-            <a:chOff x="428625" y="95250"/>
-            <a:chExt cx="2519026" cy="523875"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="Rectángulo: esquinas redondeadas 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875EF205-F423-DFD7-489F-8D821C20AB2C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="981073" y="185573"/>
-              <a:ext cx="1966578" cy="357352"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33834</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo: esquinas redondeadas 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97E7B3E-B775-4D81-98E6-416AC4548EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="152400"/>
+          <a:ext cx="1910259" cy="376844"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-PA" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Quicksand" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>  Registro de Ventas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-PA" sz="1200" b="0">
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="es-PA" sz="1200" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Quicksand" pitchFamily="2" charset="0"/>
-                </a:rPr>
-                <a:t>  Registro de Ventas</a:t>
-              </a:r>
-              <a:endParaRPr lang="es-PA" sz="1200" b="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Quicksand" pitchFamily="2" charset="0"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="Rectángulo: esquinas diagonales redondeadas 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAF4628C-4B4F-FD82-8B14-B2499FBDED60}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="428625" y="95250"/>
-              <a:ext cx="600075" cy="523875"/>
-            </a:xfrm>
-            <a:prstGeom prst="round2DiagRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" indent="0" algn="l"/>
-              <a:endParaRPr lang="es-PA" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Imagen 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB768DF-6AC6-1BA6-CCB0-E8022ED7FE56}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-              <a:extLst>
-                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="571500" y="190500"/>
-              <a:ext cx="304799" cy="353750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-    </xdr:grpSp>
+            <a:latin typeface="Quicksand" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4398,8 +4083,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>64578</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="VENDEDORES">
@@ -4422,7 +4107,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4476,8 +4161,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>65942</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="MARCA">
@@ -4500,7 +4185,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9252,327 +8937,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D35E62B5-158A-4D57-A595-F90A31D4A6EB}" name="TablaDinámica5" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="F4:G12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="15" showAll="0">
-      <items count="202">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="95"/>
-        <item x="9"/>
-        <item x="96"/>
-        <item x="78"/>
-        <item x="8"/>
-        <item x="97"/>
-        <item x="5"/>
-        <item x="98"/>
-        <item x="3"/>
-        <item x="99"/>
-        <item x="83"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="160"/>
-        <item x="104"/>
-        <item x="89"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="94"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="7"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="12"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="177"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="1"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item m="1" x="200"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Monto ($)" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="60">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7047B9F9-71D3-4A64-A8B0-1A9DDF042CF6}" name="TablaDinámica4" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7047B9F9-71D3-4A64-A8B0-1A9DDF042CF6}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B4:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -10239,12 +9604,332 @@
     <dataField name="Suma de Monto ($)" fld="7" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="61">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
     <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D35E62B5-158A-4D57-A595-F90A31D4A6EB}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="F4:G12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="15" showAll="0">
+      <items count="202">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="95"/>
+        <item x="9"/>
+        <item x="96"/>
+        <item x="78"/>
+        <item x="8"/>
+        <item x="97"/>
+        <item x="5"/>
+        <item x="98"/>
+        <item x="3"/>
+        <item x="99"/>
+        <item x="83"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="160"/>
+        <item x="104"/>
+        <item x="89"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="94"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="7"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="12"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="177"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="1"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item m="1" x="200"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Monto ($)" fld="7" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10317,10 +10002,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{310983D2-0D8C-479A-A9D5-98335C224FDA}" name="TablaVentas" displayName="TablaVentas" ref="B6:I411" totalsRowShown="0">
   <autoFilter ref="B6:I411" xr:uid="{310983D2-0D8C-479A-A9D5-98335C224FDA}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3139A93B-E0B7-44C2-972C-F67CFD71AFAC}" name="# Factura" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{CE86BE26-8006-4A03-A7F7-E07AD027EB37}" name="FECHA" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{F6CD1343-AA38-4EF6-8013-031C33AECCFE}" name="VENDEDORES" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{BC27CED0-5B5B-4E8D-8ABC-05AF32F5E0D6}" name="MARCA" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{3139A93B-E0B7-44C2-972C-F67CFD71AFAC}" name="# Factura" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CE86BE26-8006-4A03-A7F7-E07AD027EB37}" name="FECHA" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{F6CD1343-AA38-4EF6-8013-031C33AECCFE}" name="VENDEDORES" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{BC27CED0-5B5B-4E8D-8ABC-05AF32F5E0D6}" name="MARCA" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{FEAA55BC-F797-42E3-B1F5-5A8F78848066}" name="PRODUCTO"/>
     <tableColumn id="6" xr3:uid="{4156C220-B53E-4CC8-951F-C81F64EF63FD}" name="DESCRIPCION"/>
     <tableColumn id="7" xr3:uid="{BCE7AD48-01A0-4190-A13E-BB68D0B318D9}" name="SKU"/>
@@ -10847,8 +10532,8 @@
   </sheetPr>
   <dimension ref="B6:I411"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21435,7 +21120,7 @@
   </sheetPr>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -21680,6 +21365,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FBE91252D4800848AAAD2C4555871E07" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="975974abb7aba8755ed4984e5869db89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d493dd7d-f3e6-49bd-9831-1c67d99dbeb2" xmlns:ns3="d96e5ffe-b4cd-4a48-901e-5390d33a7b38" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b82796178b1fcd5dd834891cd12a9066" ns2:_="" ns3:_="">
     <xsd:import namespace="d493dd7d-f3e6-49bd-9831-1c67d99dbeb2"/>
@@ -21902,16 +21596,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B06C429-3F98-4FBA-B5B4-8572BD3ABA0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1B923E1-FEB2-4C5E-8CB2-74389B18F817}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21928,12 +21621,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B06C429-3F98-4FBA-B5B4-8572BD3ABA0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>